--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560348/JX560348_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560348/JX560348_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89306990677</v>
+        <v>45441.8333367001</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1281_1281del']</t>
+          <t>['1203_1307del', '1348_1481instgcggcattgacctgtcgccgtacaatatctagattcatcctgttggtcctttaactggtatcagtgcctaaacgtacaggtctaattaacggataacccctggttagcgattcctaagaggacaatgctaag', '1234_1335instcatcctaagactcgttatacgttctagccctacacaggctcttatcatatccttacccgcgttcgaaaggcctgcgactggcaaatagccgcgaaatttc', '1208_1238insacttcatgctatcctttcgcgtctaccgtc', '1295_1369del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.893069936</v>
+        <v>45441.83333673482</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['242_245instac']</t>
+          <t>['161_278instccgcgtaagcactctggagtgcgccgcttagccaaacataaagaccatcgttgaccagctaattgtttgttcaacgtttgaatctagcctgctcgcccgtgctactacggagtagg', '241_378del', '235_273instaattgggccgaccactaccataaggcactgacatccg', '225_325del', '237_293del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89306995611</v>
+        <v>45441.83333675218</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2958_2961insagt']</t>
+          <t>['3001_3024insagggagtaaaaaagccttctaca', '2916_2992instaccactcgtgtcttcagaatgtaataccggtgctcaccttctaagtagcaacatatgtactacgctccgacgcag', '2983_3019insgagcctgctggatgtgtttgtggcaacactgggctc', '2959_3031del', '2947_3042insgcttataaattgaccaattggagaaaagggcgaactgtaagcgcgtaacgtaatttccttggacagtcaaggagcagatctatcaacactaatag']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89307007838</v>
+        <v>45441.83333687481</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1276_1280inscgaa']</t>
+          <t>['1217_1335insactccaacgagatcacagcagaccctcacgatggcctgtgtcgattcaatcttatagtctccttgaaatccacctaattcgttgattacatactcatacgccacagcatatttctacc', '1152_1254del', '1109_1245inscatcggagaggtctttgttgctatcctccaagttgagcccttggggacgtatatcagccactaaccaaatcacgacagctgcccaaagcctaactcttttatggtcttttaacgcgttctcgatgtttagagtttt', '1137_1197inscgagtctgcatagtaagacgtcccgcaaggaggatctcaggtccatatgacaggggctgt', '1320_1344instgcggttatgtttgccccaaatgg']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['203_204del']</t>
+          <t>['244_359insgtcacgagccgtcgtctcatgaaattataggacagtccgggcatgtgataattcggcgttcgaacagcgattttgcaatgctgcaaatgtctatactccttataagcacatacct', '194_295inscaacctaatgagaaacccgaaccgcgtagaatggttccttgctgcagcgacgtagagagtcctgccaatgaacatgattggagcctttgagcactaagttt', '251_329del', '174_270instgtcgttatagagacgcgcaagcctcagcatacgagatgtggacgcaatatgatgggactactaagtatctcatttgccgtgtgccattgaatgga', '218_317del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8930701016</v>
+        <v>45441.83333689795</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1290a&gt;t']</t>
+          <t>['1238_1325inscctcaaacgtcaccagggctgcgtccgtctatagcacggggtccgagttacttccgtctgatgcctgtcctttctgactgaaattac', '1187_1322del', '1118_1204del', '1238_1259instatggcctcaattcaccacta', '1151_1186insaggggcgaaggcggctgagtgggaagttgggttcg']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['2947a&gt;t']</t>
+          <t>['3000_3137inscttgatcaactttgtaaaaactcgacatgggacagcgaccataatctaattatctttgttctgacggaatgcctgtgccgctggtatagcgctggattaagagacgaatgggcacatctaggcattcattgcagttc', '2920_2948insgtaggtagtggaccgtatggagcctcat', '2961_3063del', '2955_3026insagacccttgtgtatgacgtgggtgagggggaccggtatgagctcgttctggcatacatcagacacaacatc', '2979_3066del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89307011894</v>
+        <v>45441.8333369211</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['226_230insccta']</t>
+          <t>['222_302del', '194_230instgctctttccgctttacggagaacttagatacggag', '245_310inscggaagctcgatcacgcccgcaaacaatagctgtgctgaacgagagattcctctccccatgctac', '169_181del', '215_309inscgagcccactgcacagggcggcaaaatttaaaatttaaaaggagctttcttccacgacttctcgagagcagtgtgtcccatctctgaaattcct']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['2907_2910inscag']</t>
+          <t>['2909_3022inscctgaaagatccggatgttgccacgtgtagaaagattgataacgaatgacctaatccgactcagaggtcgtctgtccaaagaggttgtactagagggaaaggagattatacgg', '2964_2985del', '2901_3029insctcctggttaatgaagacatgatcccagcccatttaggtcctctgactgatcatcgacagattgaggtggggcgtacgaatacggcctacccaaacctgttttagctgggctcgcaccgtcattcgcc', '2971_3029del', '2997_3034insacgacctctcagtcaacctatagcagtggggatctta']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.8930701421</v>
+        <v>45441.83333694427</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1166c&gt;a']</t>
+          <t>['1285_1316del', '1222_1318del', '1306_1334insccgcggacgatggagtaagctgtttcgg', '1306_1347del', '1309_1364del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['242_245del']</t>
+          <t>['164_247del', '166_234del', '175_235del', '166_247del', '229_323inscccacgcctatcgccgagcgtacaataggcggtttcccagattgctacaaaatttgaatcgcattgccccgggacttgattcctgagctggggt']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['2943c&gt;t']</t>
+          <t>['2954_2984inscggcgcggcagttcgaacatctctacgagg', '2990_3137del', '2941_2983instgctgccggacacgcacatatgtgaggatagaattttctgaa', '2953_3033inscgtccacgatgtaccagttgttgtcccacagcctcctcttaggcgtttaactgggaagagatcacatggacagttccggt', '2923_2941insgaaggtgccaccatccgc']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89307015834</v>
+        <v>45441.83333696739</v>
       </c>
     </row>
   </sheetData>
